--- a/Coordinate NCDC ITRF2014@epoch2021.93 for phisan.xlsx
+++ b/Coordinate NCDC ITRF2014@epoch2021.93 for phisan.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FR621203\paisan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA247AC-4F89-4939-8676-8D7E6516A5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="46180" yWindow="5920" windowWidth="28800" windowHeight="15210" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sv1" sheetId="1" r:id="rId1"/>
@@ -24,21 +25,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="236">
   <si>
     <t>AKSN</t>
   </si>
@@ -356,9 +348,6 @@
   </si>
   <si>
     <t>NSHO</t>
-  </si>
-  <si>
-    <t>OKKR</t>
   </si>
   <si>
     <t>PBHN</t>
@@ -754,23 +743,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="187" formatCode="0.000"/>
-    <numFmt numFmtId="188" formatCode="0.000000000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Tahoma"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="222"/>
       <scheme val="minor"/>
@@ -813,15 +802,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="188" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="1"/>
+    <cellStyle name="Normal 4" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1132,31 +1121,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N229"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:N228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A217" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:XFD200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="24.6" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="9.1015625" defaultRowHeight="20.399999999999999"/>
   <cols>
-    <col min="1" max="1" width="4.19921875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.19921875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.69921875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="13.09765625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.796875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.09765625" style="3"/>
-    <col min="12" max="13" width="13.09765625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.69921875" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.09765625" style="3"/>
+    <col min="1" max="1" width="4.20703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.20703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.89453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="13.1015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.68359375" style="3" customWidth="1"/>
+    <col min="8" max="8" width="13.1015625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.7890625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.1015625" style="3"/>
+    <col min="12" max="13" width="13.1015625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.68359375" style="4" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.1015625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" ht="23.25" customHeight="1">
       <c r="B1" s="1" t="s">
         <v>70</v>
       </c>
@@ -1188,7 +1177,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:14">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1226,7 +1215,7 @@
         <v>173.38817423209548</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="3" spans="1:14">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1264,7 +1253,7 @@
         <v>-2.4563227873295546</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="4" spans="1:14">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1302,7 +1291,7 @@
         <v>-4.1122246403247118</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="5" spans="1:14">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1340,7 +1329,7 @@
         <v>-9.5695573575794697</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="6" spans="1:14">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1378,7 +1367,7 @@
         <v>143.21103840786964</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="7" spans="1:14">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1416,7 +1405,7 @@
         <v>214.02875404153019</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="8" spans="1:14">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1454,7 +1443,7 @@
         <v>114.00886441674083</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="9" spans="1:14">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1492,7 +1481,7 @@
         <v>152.79849054571241</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="10" spans="1:14">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1530,7 +1519,7 @@
         <v>184.83430099021643</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="11" spans="1:14">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1568,7 +1557,7 @@
         <v>409.27773908618838</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="12" spans="1:14">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1606,7 +1595,7 @@
         <v>281.9009391926229</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="13" spans="1:14">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1644,7 +1633,7 @@
         <v>157.08365178015083</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="14" spans="1:14">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1682,7 +1671,7 @@
         <v>325.89631136879325</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="15" spans="1:14">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1720,7 +1709,7 @@
         <v>133.57917229086161</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="16" spans="1:14">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -1758,7 +1747,7 @@
         <v>16.223476123996079</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:14">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -1796,7 +1785,7 @@
         <v>96.689261954277754</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:14">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -1834,7 +1823,7 @@
         <v>155.57672463450581</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="19" spans="1:14">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -1872,7 +1861,7 @@
         <v>134.60479795839638</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:14">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -1910,15 +1899,15 @@
         <v>155.65346649289131</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:14">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D21" s="4">
         <v>-1028340.64982</v>
@@ -1948,15 +1937,15 @@
         <v>436.36201742291451</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:14">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D22" s="4">
         <v>-1020697.53249</v>
@@ -1986,15 +1975,15 @@
         <v>-4.9310996234416962</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:14">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D23" s="4">
         <v>-1218007.5851100001</v>
@@ -2024,7 +2013,7 @@
         <v>57.703058581799269</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:14">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -2062,7 +2051,7 @@
         <v>108.04062672983855</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:14">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -2100,7 +2089,7 @@
         <v>262.49558194354177</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:14">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -2138,7 +2127,7 @@
         <v>205.25926152989268</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="27" spans="1:14">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -2176,7 +2165,7 @@
         <v>-9.1984092257916927</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:14">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -2214,7 +2203,7 @@
         <v>169.52082212269306</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:14">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -2252,7 +2241,7 @@
         <v>74.221832251176238</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:14">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -2290,7 +2279,7 @@
         <v>54.262916320003569</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:14">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -2328,7 +2317,7 @@
         <v>5.3712743110954762</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:14">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -2366,7 +2355,7 @@
         <v>120.75360053498298</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -2404,7 +2393,7 @@
         <v>163.18629647791386</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -2442,7 +2431,7 @@
         <v>209.36936321109533</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -2480,7 +2469,7 @@
         <v>145.3361157849431</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -2518,7 +2507,7 @@
         <v>122.33275015838444</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -2556,7 +2545,7 @@
         <v>53.572923469357193</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -2594,7 +2583,7 @@
         <v>-12.501407777890563</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -2632,7 +2621,7 @@
         <v>183.867262580432</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -2670,7 +2659,7 @@
         <v>110.71726266760379</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:14">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -2708,7 +2697,7 @@
         <v>8.0519564272835851</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:14">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -2746,7 +2735,7 @@
         <v>29.681949940510094</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="43" spans="1:14">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -2784,7 +2773,7 @@
         <v>144.07033191435039</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:14">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -2822,7 +2811,7 @@
         <v>139.16922945063561</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:14">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -2860,7 +2849,7 @@
         <v>39.603407696820796</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:14">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -2898,15 +2887,15 @@
         <v>-8.6952632991597056</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:14">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D47" s="4">
         <v>-1257391.8575299999</v>
@@ -2936,15 +2925,15 @@
         <v>236.60961513966322</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:14">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D48" s="4">
         <v>-1046898.30263</v>
@@ -2974,15 +2963,15 @@
         <v>252.12272758409381</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:14">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D49" s="4">
         <v>-945162.18397999997</v>
@@ -3012,15 +3001,15 @@
         <v>420.86845735739917</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:14">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D50" s="4">
         <v>-1083659.5465899999</v>
@@ -3050,15 +3039,15 @@
         <v>10.4109767973423</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:14">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D51" s="4">
         <v>-1468571.71502</v>
@@ -3088,7 +3077,7 @@
         <v>131.81709535233676</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="52" spans="1:14">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -3126,7 +3115,7 @@
         <v>108.95996761694551</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:14">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -3164,7 +3153,7 @@
         <v>9.823601495474577</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:14">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -3202,7 +3191,7 @@
         <v>36.899006268009543</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:14">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -3240,7 +3229,7 @@
         <v>-21.766800562851131</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:14">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -3278,7 +3267,7 @@
         <v>-9.0783576751127839</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:14">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -3316,7 +3305,7 @@
         <v>49.535000066272914</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:14">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -3354,7 +3343,7 @@
         <v>230.59332319349051</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:14">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -3392,7 +3381,7 @@
         <v>421.89315459225327</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:14">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -3430,15 +3419,15 @@
         <v>36.882889909669757</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="61" spans="1:14">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D61" s="4">
         <v>-1139278.64326</v>
@@ -3468,7 +3457,7 @@
         <v>1.2455662926658988</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:14">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -3506,7 +3495,7 @@
         <v>31.591849277727306</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:14">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -3544,7 +3533,7 @@
         <v>5.1590608274564147</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:14">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -3582,7 +3571,7 @@
         <v>16.628004211932421</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:14">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -3620,7 +3609,7 @@
         <v>382.19356352835894</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:14">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -3658,7 +3647,7 @@
         <v>196.88888608850539</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:14">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -3696,7 +3685,7 @@
         <v>25.944341400638223</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:14">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3734,7 +3723,7 @@
         <v>152.06458208430558</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:14">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -3772,7 +3761,7 @@
         <v>-19.354336652904749</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="70" spans="1:14">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -3810,7 +3799,7 @@
         <v>1.9855096805840731</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:14">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -3848,7 +3837,7 @@
         <v>-10.812428145669401</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:14">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -3886,7 +3875,7 @@
         <v>-5.0083105796948075</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:14">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -3924,7 +3913,7 @@
         <v>135.61660474725068</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:14">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -3962,7 +3951,7 @@
         <v>219.23822545446455</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:14">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -4000,7 +3989,7 @@
         <v>-3.6620129123330116</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:14">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -4038,7 +4027,7 @@
         <v>5.6707944674417377</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="77" spans="1:14">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -4076,15 +4065,15 @@
         <v>25.005014380440116</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="78" spans="1:14">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D78" s="4">
         <v>-1549340.5446899999</v>
@@ -4114,7 +4103,7 @@
         <v>118.95259772054851</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="79" spans="1:14">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -4152,7 +4141,7 @@
         <v>475.09885347355157</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="80" spans="1:14">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -4190,7 +4179,7 @@
         <v>116.53465416748077</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="81" spans="1:14">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -4228,15 +4217,15 @@
         <v>52.480638849548995</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="82" spans="1:14">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D82" s="4">
         <v>-883144.29532999999</v>
@@ -4266,15 +4255,15 @@
         <v>785.02950744051486</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="83" spans="1:14">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D83" s="4">
         <v>-944812.84213</v>
@@ -4304,15 +4293,15 @@
         <v>428.8460252052173</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="84" spans="1:14">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D84" s="4">
         <v>-956898.46878</v>
@@ -4342,15 +4331,15 @@
         <v>-7.2069647610187531</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="85" spans="1:14">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D85" s="4">
         <v>-1134356.4461999999</v>
@@ -4380,15 +4369,15 @@
         <v>-14.575454015284777</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="86" spans="1:14">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D86" s="4">
         <v>-1394062.2638099999</v>
@@ -4418,15 +4407,15 @@
         <v>147.84393914882094</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="87" spans="1:14">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D87" s="4">
         <v>-1429610.46102</v>
@@ -4456,15 +4445,15 @@
         <v>131.81014007795602</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="88" spans="1:14">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D88" s="4">
         <v>-1164774.7376699999</v>
@@ -4494,15 +4483,15 @@
         <v>402.38570001907647</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="89" spans="1:14">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D89" s="4">
         <v>-1173899.7645099999</v>
@@ -4532,15 +4521,15 @@
         <v>-12.487091924063861</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="90" spans="1:14">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D90" s="4">
         <v>-1424892.3817100001</v>
@@ -4570,15 +4559,15 @@
         <v>134.65882225893438</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="91" spans="1:14">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D91" s="4">
         <v>-1312990.66392</v>
@@ -4608,15 +4597,15 @@
         <v>158.77803467120975</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="92" spans="1:14">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D92" s="4">
         <v>-1490328.02052</v>
@@ -4646,15 +4635,15 @@
         <v>127.50077592674643</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="93" spans="1:14">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D93" s="4">
         <v>-1391662.8697800001</v>
@@ -4684,15 +4673,15 @@
         <v>151.3512332784012</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="94" spans="1:14">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D94" s="4">
         <v>-1166457.8822300001</v>
@@ -4722,15 +4711,15 @@
         <v>709.96110081300139</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="95" spans="1:14">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D95" s="4">
         <v>-1351917.69258</v>
@@ -4760,15 +4749,15 @@
         <v>11.015211774967611</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="96" spans="1:14">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D96" s="4">
         <v>-1639450.2544499999</v>
@@ -4798,15 +4787,15 @@
         <v>139.56205040309578</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="97" spans="1:14">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D97" s="4">
         <v>-1218862.8794</v>
@@ -4836,15 +4825,15 @@
         <v>288.93136644270271</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="98" spans="1:14">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D98" s="4">
         <v>-1321931.4406900001</v>
@@ -4874,15 +4863,15 @@
         <v>143.88654667977244</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="99" spans="1:14">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D99" s="4">
         <v>-1305191.1947900001</v>
@@ -4912,15 +4901,15 @@
         <v>7.7766683837398887</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="100" spans="1:14">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D100" s="4">
         <v>-1186344.0160399999</v>
@@ -4950,15 +4939,15 @@
         <v>25.775717942044139</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="101" spans="1:14">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D101" s="4">
         <v>-1081312.0737000001</v>
@@ -4988,15 +4977,15 @@
         <v>327.86324970144778</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="102" spans="1:14">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D102" s="4">
         <v>-1227549.63806</v>
@@ -5026,15 +5015,15 @@
         <v>191.48344225622714</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="103" spans="1:14">
       <c r="A103" s="2">
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D103" s="4">
         <v>-1002385.5660399999</v>
@@ -5064,15 +5053,15 @@
         <v>-1.6541500594466925</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="104" spans="1:14">
       <c r="A104" s="2">
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D104" s="4">
         <v>-1155477.1065799999</v>
@@ -5102,15 +5091,15 @@
         <v>473.20441147312522</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="105" spans="1:14">
       <c r="A105" s="2">
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D105" s="4">
         <v>-994847.71206000005</v>
@@ -5140,15 +5129,15 @@
         <v>-9.950513525865972</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="106" spans="1:14">
       <c r="A106" s="2">
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D106" s="4">
         <v>-1183806.87475</v>
@@ -5178,15 +5167,15 @@
         <v>-7.7285246411338449</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="107" spans="1:14">
       <c r="A107" s="2">
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D107" s="4">
         <v>-1132916.00437</v>
@@ -5216,15 +5205,15 @@
         <v>74.315815372392535</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="108" spans="1:14">
       <c r="A108" s="2">
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D108" s="4">
         <v>-1177823.3191500001</v>
@@ -5254,15 +5243,15 @@
         <v>331.11865573562682</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="109" spans="1:14">
       <c r="A109" s="2">
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D109" s="4">
         <v>-983713.41200000001</v>
@@ -5292,15 +5281,15 @@
         <v>249.45779039897025</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="110" spans="1:14">
       <c r="A110" s="2">
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D110" s="4">
         <v>-1003279.90848</v>
@@ -5330,15 +5319,15 @@
         <v>274.93975909985602</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="111" spans="1:14">
       <c r="A111" s="2">
         <v>110</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D111" s="4">
         <v>-1324558.7103500001</v>
@@ -5368,15 +5357,15 @@
         <v>149.44007797911763</v>
       </c>
     </row>
-    <row r="112" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="112" spans="1:14">
       <c r="A112" s="2">
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D112" s="4">
         <v>-1451929.9443000001</v>
@@ -5406,15 +5395,15 @@
         <v>181.77539865020663</v>
       </c>
     </row>
-    <row r="113" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="113" spans="1:14">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D113" s="4">
         <v>-1643844.75343</v>
@@ -5444,15 +5433,15 @@
         <v>94.317612000741065</v>
       </c>
     </row>
-    <row r="114" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="114" spans="1:14">
       <c r="A114" s="2">
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D114" s="4">
         <v>-1610363.4257799999</v>
@@ -5482,15 +5471,15 @@
         <v>118.84711477719247</v>
       </c>
     </row>
-    <row r="115" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="115" spans="1:14">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D115" s="4">
         <v>-1042150.32366</v>
@@ -5520,15 +5509,15 @@
         <v>48.459759856574237</v>
       </c>
     </row>
-    <row r="116" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="116" spans="1:14">
       <c r="A116" s="2">
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D116" s="4">
         <v>-1430048.1244399999</v>
@@ -5558,15 +5547,15 @@
         <v>128.76487542316318</v>
       </c>
     </row>
-    <row r="117" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="117" spans="1:14">
       <c r="A117" s="2">
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D117" s="4">
         <v>-1304888.2402999999</v>
@@ -5596,15 +5585,15 @@
         <v>158.95578683260828</v>
       </c>
     </row>
-    <row r="118" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="118" spans="1:14">
       <c r="A118" s="2">
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D118" s="4">
         <v>-835485.65312000003</v>
@@ -5634,15 +5623,15 @@
         <v>590.40605665370822</v>
       </c>
     </row>
-    <row r="119" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="119" spans="1:14">
       <c r="A119" s="2">
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D119" s="4">
         <v>-1356671.1029999999</v>
@@ -5672,15 +5661,15 @@
         <v>35.98616280592978</v>
       </c>
     </row>
-    <row r="120" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="120" spans="1:14">
       <c r="A120" s="2">
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D120" s="4">
         <v>-1091258.781</v>
@@ -5710,15 +5699,15 @@
         <v>-11.980868584476411</v>
       </c>
     </row>
-    <row r="121" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="121" spans="1:14">
       <c r="A121" s="2">
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D121" s="4">
         <v>-1268451.5312399999</v>
@@ -5748,15 +5737,15 @@
         <v>206.29184613842517</v>
       </c>
     </row>
-    <row r="122" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="122" spans="1:14">
       <c r="A122" s="2">
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D122" s="4">
         <v>-1442358.3597500001</v>
@@ -5786,15 +5775,15 @@
         <v>115.40557844284922</v>
       </c>
     </row>
-    <row r="123" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="123" spans="1:14">
       <c r="A123" s="2">
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D123" s="4">
         <v>-1513557.99655</v>
@@ -5824,15 +5813,15 @@
         <v>137.66181278135628</v>
       </c>
     </row>
-    <row r="124" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="124" spans="1:14">
       <c r="A124" s="2">
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D124" s="4">
         <v>-1076507.0345300001</v>
@@ -5862,15 +5851,15 @@
         <v>-7.2871619770303369</v>
       </c>
     </row>
-    <row r="125" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="125" spans="1:14">
       <c r="A125" s="2">
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D125" s="4">
         <v>-1539633.5432599999</v>
@@ -5900,15 +5889,15 @@
         <v>142.8018200378865</v>
       </c>
     </row>
-    <row r="126" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="126" spans="1:14">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D126" s="4">
         <v>-1186805.2351599999</v>
@@ -5938,15 +5927,15 @@
         <v>137.93256477173418</v>
       </c>
     </row>
-    <row r="127" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="127" spans="1:14">
       <c r="A127" s="2">
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D127" s="4">
         <v>-879958.64468000003</v>
@@ -5976,15 +5965,15 @@
         <v>437.9007995929569</v>
       </c>
     </row>
-    <row r="128" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="128" spans="1:14">
       <c r="A128" s="2">
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D128" s="4">
         <v>-834433.86739000003</v>
@@ -6014,15 +6003,15 @@
         <v>203.49576169904321</v>
       </c>
     </row>
-    <row r="129" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="129" spans="1:14">
       <c r="A129" s="2">
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D129" s="4">
         <v>-1026415.15229</v>
@@ -6052,15 +6041,15 @@
         <v>378.02861989568919</v>
       </c>
     </row>
-    <row r="130" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="130" spans="1:14">
       <c r="A130" s="2">
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D130" s="4">
         <v>-910899.79628000001</v>
@@ -6090,15 +6079,15 @@
         <v>180.79934367071837</v>
       </c>
     </row>
-    <row r="131" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="131" spans="1:14">
       <c r="A131" s="2">
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D131" s="4">
         <v>-1562766.5272299999</v>
@@ -6128,15 +6117,15 @@
         <v>117.49503955710679</v>
       </c>
     </row>
-    <row r="132" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="132" spans="1:14">
       <c r="A132" s="2">
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D132" s="4">
         <v>-1015276.78628</v>
@@ -6166,15 +6155,15 @@
         <v>97.519493354484439</v>
       </c>
     </row>
-    <row r="133" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="133" spans="1:14">
       <c r="A133" s="2">
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D133" s="4">
         <v>-1598658.7600199999</v>
@@ -6204,15 +6193,15 @@
         <v>169.93438665475696</v>
       </c>
     </row>
-    <row r="134" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="134" spans="1:14">
       <c r="A134" s="2">
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D134" s="4">
         <v>-1078589.93921</v>
@@ -6242,15 +6231,15 @@
         <v>21.208845961838961</v>
       </c>
     </row>
-    <row r="135" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="135" spans="1:14">
       <c r="A135" s="2">
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D135" s="4">
         <v>-1317071.0218199999</v>
@@ -6280,15 +6269,15 @@
         <v>172.79575865250081</v>
       </c>
     </row>
-    <row r="136" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="136" spans="1:14">
       <c r="A136" s="2">
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D136" s="4">
         <v>-1298692.5052100001</v>
@@ -6318,15 +6307,15 @@
         <v>4.4374155830591917</v>
       </c>
     </row>
-    <row r="137" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="137" spans="1:14">
       <c r="A137" s="2">
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D137" s="4">
         <v>-1178265.22851</v>
@@ -6356,15 +6345,15 @@
         <v>-15.41298025008291</v>
       </c>
     </row>
-    <row r="138" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="138" spans="1:14">
       <c r="A138" s="2">
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D138" s="4">
         <v>-1062387.6410399999</v>
@@ -6394,15 +6383,15 @@
         <v>-11.922192635014653</v>
       </c>
     </row>
-    <row r="139" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="139" spans="1:14">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D139" s="4">
         <v>-1209062.8884000001</v>
@@ -6432,15 +6421,15 @@
         <v>37.364824086427689</v>
       </c>
     </row>
-    <row r="140" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="140" spans="1:14">
       <c r="A140" s="2">
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D140" s="4">
         <v>-1373244.1678800001</v>
@@ -6470,15 +6459,15 @@
         <v>141.25826211553067</v>
       </c>
     </row>
-    <row r="141" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="141" spans="1:14">
       <c r="A141" s="2">
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D141" s="4">
         <v>-1479558.1557100001</v>
@@ -6508,15 +6497,15 @@
         <v>143.39808630850166</v>
       </c>
     </row>
-    <row r="142" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="142" spans="1:14">
       <c r="A142" s="2">
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D142" s="4">
         <v>-1075183.2704799999</v>
@@ -6546,15 +6535,15 @@
         <v>265.02298622298986</v>
       </c>
     </row>
-    <row r="143" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="143" spans="1:14">
       <c r="A143" s="2">
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D143" s="4">
         <v>-1072925.11063</v>
@@ -6584,15 +6573,15 @@
         <v>-16.102519243955612</v>
       </c>
     </row>
-    <row r="144" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="144" spans="1:14">
       <c r="A144" s="2">
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D144" s="4">
         <v>-1034057.88533</v>
@@ -6622,15 +6611,15 @@
         <v>378.71310756914318</v>
       </c>
     </row>
-    <row r="145" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="145" spans="1:14">
       <c r="A145" s="2">
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D145" s="4">
         <v>-1132675.5083000001</v>
@@ -6660,15 +6649,15 @@
         <v>-4.0752635095268488</v>
       </c>
     </row>
-    <row r="146" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="146" spans="1:14">
       <c r="A146" s="2">
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D146" s="4">
         <v>-1126888.8185399999</v>
@@ -6698,15 +6687,15 @@
         <v>17.141424265690148</v>
       </c>
     </row>
-    <row r="147" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="147" spans="1:14">
       <c r="A147" s="2">
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D147" s="4">
         <v>-1216734.6592699999</v>
@@ -6736,15 +6725,15 @@
         <v>-13.418210972100496</v>
       </c>
     </row>
-    <row r="148" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="148" spans="1:14">
       <c r="A148" s="2">
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D148" s="4">
         <v>-1298270.8079200001</v>
@@ -6774,15 +6763,15 @@
         <v>25.709020195528865</v>
       </c>
     </row>
-    <row r="149" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="149" spans="1:14">
       <c r="A149" s="2">
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D149" s="4">
         <v>-916785.94854999997</v>
@@ -6812,15 +6801,15 @@
         <v>470.36897321045399</v>
       </c>
     </row>
-    <row r="150" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="150" spans="1:14">
       <c r="A150" s="2">
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D150" s="4">
         <v>-1275756.5241799999</v>
@@ -6850,15 +6839,15 @@
         <v>1.5422627069056034</v>
       </c>
     </row>
-    <row r="151" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="151" spans="1:14">
       <c r="A151" s="2">
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D151" s="4">
         <v>-1314806.3576799999</v>
@@ -6888,15 +6877,15 @@
         <v>233.83634320925921</v>
       </c>
     </row>
-    <row r="152" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="152" spans="1:14">
       <c r="A152" s="2">
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D152" s="4">
         <v>-1252681.69246</v>
@@ -6926,15 +6915,15 @@
         <v>212.21842692792416</v>
       </c>
     </row>
-    <row r="153" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="153" spans="1:14">
       <c r="A153" s="2">
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D153" s="4">
         <v>-1083287.80241</v>
@@ -6964,15 +6953,15 @@
         <v>-9.7958245016634464</v>
       </c>
     </row>
-    <row r="154" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="154" spans="1:14">
       <c r="A154" s="2">
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D154" s="4">
         <v>-905237.40508000006</v>
@@ -7002,15 +6991,15 @@
         <v>173.80024900380522</v>
       </c>
     </row>
-    <row r="155" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="155" spans="1:14">
       <c r="A155" s="2">
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D155" s="4">
         <v>-1488626.67444</v>
@@ -7040,15 +7029,15 @@
         <v>155.08423255104572</v>
       </c>
     </row>
-    <row r="156" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="156" spans="1:14">
       <c r="A156" s="2">
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D156" s="4">
         <v>-1289316.1985299999</v>
@@ -7078,15 +7067,15 @@
         <v>151.13340421393514</v>
       </c>
     </row>
-    <row r="157" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="157" spans="1:14">
       <c r="A157" s="2">
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D157" s="4">
         <v>-1041316.49182</v>
@@ -7116,15 +7105,15 @@
         <v>23.114997210912406</v>
       </c>
     </row>
-    <row r="158" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="158" spans="1:14">
       <c r="A158" s="2">
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D158" s="4">
         <v>-1017286.87759</v>
@@ -7154,15 +7143,15 @@
         <v>100.67839252762496</v>
       </c>
     </row>
-    <row r="159" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="159" spans="1:14">
       <c r="A159" s="2">
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D159" s="4">
         <v>-1177361.2252799999</v>
@@ -7192,15 +7181,15 @@
         <v>-17.280323669314384</v>
       </c>
     </row>
-    <row r="160" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="160" spans="1:14">
       <c r="A160" s="2">
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D160" s="4">
         <v>-1438061.2286499999</v>
@@ -7230,15 +7219,15 @@
         <v>129.06811281945556</v>
       </c>
     </row>
-    <row r="161" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="161" spans="1:14">
       <c r="A161" s="2">
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D161" s="4">
         <v>-1371960.2854899999</v>
@@ -7268,15 +7257,15 @@
         <v>58.310122268274426</v>
       </c>
     </row>
-    <row r="162" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="162" spans="1:14">
       <c r="A162" s="2">
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D162" s="4">
         <v>-914616.17010999995</v>
@@ -7306,15 +7295,15 @@
         <v>-14.098384824581444</v>
       </c>
     </row>
-    <row r="163" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="163" spans="1:14">
       <c r="A163" s="2">
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D163" s="4">
         <v>-925142.08875999996</v>
@@ -7344,15 +7333,15 @@
         <v>118.71854227408767</v>
       </c>
     </row>
-    <row r="164" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="164" spans="1:14">
       <c r="A164" s="2">
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D164" s="4">
         <v>-871885.68201999995</v>
@@ -7382,15 +7371,15 @@
         <v>99.725462729111314</v>
       </c>
     </row>
-    <row r="165" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="165" spans="1:14">
       <c r="A165" s="2">
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D165" s="4">
         <v>-1594093.5605299999</v>
@@ -7420,15 +7409,15 @@
         <v>126.50122489407659</v>
       </c>
     </row>
-    <row r="166" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="166" spans="1:14">
       <c r="A166" s="2">
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D166" s="4">
         <v>-1549746.81366</v>
@@ -7458,15 +7447,15 @@
         <v>125.7831067321822</v>
       </c>
     </row>
-    <row r="167" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="167" spans="1:14">
       <c r="A167" s="2">
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D167" s="4">
         <v>-1183380.7306299999</v>
@@ -7496,15 +7485,15 @@
         <v>46.193595780991018</v>
       </c>
     </row>
-    <row r="168" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="168" spans="1:14">
       <c r="A168" s="2">
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D168" s="4">
         <v>-1012833.80149</v>
@@ -7534,15 +7523,15 @@
         <v>72.740584132261574</v>
       </c>
     </row>
-    <row r="169" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="169" spans="1:14">
       <c r="A169" s="2">
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D169" s="4">
         <v>-902983.54117999994</v>
@@ -7572,15 +7561,15 @@
         <v>705.68129174225032</v>
       </c>
     </row>
-    <row r="170" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="170" spans="1:14">
       <c r="A170" s="2">
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D170" s="4">
         <v>-1268879.7194300001</v>
@@ -7610,15 +7599,15 @@
         <v>400.61128675565124</v>
       </c>
     </row>
-    <row r="171" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="171" spans="1:14">
       <c r="A171" s="2">
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D171" s="4">
         <v>-1110093.28143</v>
@@ -7648,15 +7637,15 @@
         <v>-14.384314159862697</v>
       </c>
     </row>
-    <row r="172" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="172" spans="1:14">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D172" s="4">
         <v>-1204574.62585</v>
@@ -7686,7 +7675,7 @@
         <v>-2.4091233965009451</v>
       </c>
     </row>
-    <row r="173" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="173" spans="1:14">
       <c r="A173" s="2">
         <v>172</v>
       </c>
@@ -7724,7 +7713,7 @@
         <v>7.1048896489664912</v>
       </c>
     </row>
-    <row r="174" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="174" spans="1:14">
       <c r="A174" s="2">
         <v>173</v>
       </c>
@@ -7762,7 +7751,7 @@
         <v>-17.907592121511698</v>
       </c>
     </row>
-    <row r="175" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="175" spans="1:14">
       <c r="A175" s="2">
         <v>174</v>
       </c>
@@ -7800,7 +7789,7 @@
         <v>186.65556786861271</v>
       </c>
     </row>
-    <row r="176" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="176" spans="1:14">
       <c r="A176" s="2">
         <v>175</v>
       </c>
@@ -7838,7 +7827,7 @@
         <v>46.809969572350383</v>
       </c>
     </row>
-    <row r="177" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="177" spans="1:14">
       <c r="A177" s="2">
         <v>176</v>
       </c>
@@ -7876,7 +7865,7 @@
         <v>-18.411915441043675</v>
       </c>
     </row>
-    <row r="178" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="178" spans="1:14">
       <c r="A178" s="2">
         <v>177</v>
       </c>
@@ -7914,7 +7903,7 @@
         <v>125.33114963863045</v>
       </c>
     </row>
-    <row r="179" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="179" spans="1:14">
       <c r="A179" s="2">
         <v>178</v>
       </c>
@@ -7952,7 +7941,7 @@
         <v>93.438918466679752</v>
       </c>
     </row>
-    <row r="180" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="180" spans="1:14">
       <c r="A180" s="2">
         <v>179</v>
       </c>
@@ -7990,7 +7979,7 @@
         <v>327.8277079956606</v>
       </c>
     </row>
-    <row r="181" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="181" spans="1:14">
       <c r="A181" s="2">
         <v>180</v>
       </c>
@@ -8028,7 +8017,7 @@
         <v>158.92482569441199</v>
       </c>
     </row>
-    <row r="182" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="182" spans="1:14">
       <c r="A182" s="2">
         <v>181</v>
       </c>
@@ -8066,7 +8055,7 @@
         <v>174.79485100787133</v>
       </c>
     </row>
-    <row r="183" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="183" spans="1:14">
       <c r="A183" s="2">
         <v>182</v>
       </c>
@@ -8104,7 +8093,7 @@
         <v>193.36781531572342</v>
       </c>
     </row>
-    <row r="184" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="184" spans="1:14">
       <c r="A184" s="2">
         <v>183</v>
       </c>
@@ -8142,7 +8131,7 @@
         <v>37.945983082056046</v>
       </c>
     </row>
-    <row r="185" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="185" spans="1:14">
       <c r="A185" s="2">
         <v>184</v>
       </c>
@@ -8180,7 +8169,7 @@
         <v>116.11561571992934</v>
       </c>
     </row>
-    <row r="186" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="186" spans="1:14">
       <c r="A186" s="2">
         <v>185</v>
       </c>
@@ -8218,7 +8207,7 @@
         <v>-0.89666749630123377</v>
       </c>
     </row>
-    <row r="187" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="187" spans="1:14">
       <c r="A187" s="2">
         <v>186</v>
       </c>
@@ -8256,7 +8245,7 @@
         <v>911.00526807829738</v>
       </c>
     </row>
-    <row r="188" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="188" spans="1:14">
       <c r="A188" s="2">
         <v>187</v>
       </c>
@@ -8294,7 +8283,7 @@
         <v>-11.083893756382167</v>
       </c>
     </row>
-    <row r="189" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="189" spans="1:14">
       <c r="A189" s="2">
         <v>188</v>
       </c>
@@ -8332,7 +8321,7 @@
         <v>159.74083109386265</v>
       </c>
     </row>
-    <row r="190" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="190" spans="1:14">
       <c r="A190" s="2">
         <v>189</v>
       </c>
@@ -8370,7 +8359,7 @@
         <v>138.65412779711187</v>
       </c>
     </row>
-    <row r="191" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="191" spans="1:14">
       <c r="A191" s="2">
         <v>190</v>
       </c>
@@ -8408,7 +8397,7 @@
         <v>160.71794710867107</v>
       </c>
     </row>
-    <row r="192" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="192" spans="1:14">
       <c r="A192" s="2">
         <v>191</v>
       </c>
@@ -8446,7 +8435,7 @@
         <v>-14.11850503180176</v>
       </c>
     </row>
-    <row r="193" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="193" spans="1:14">
       <c r="A193" s="2">
         <v>192</v>
       </c>
@@ -8484,7 +8473,7 @@
         <v>9.6403212659060955</v>
       </c>
     </row>
-    <row r="194" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="194" spans="1:14">
       <c r="A194" s="2">
         <v>193</v>
       </c>
@@ -8522,7 +8511,7 @@
         <v>145.01228794828057</v>
       </c>
     </row>
-    <row r="195" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="195" spans="1:14">
       <c r="A195" s="2">
         <v>194</v>
       </c>
@@ -8560,7 +8549,7 @@
         <v>248.7664546854794</v>
       </c>
     </row>
-    <row r="196" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="196" spans="1:14">
       <c r="A196" s="2">
         <v>195</v>
       </c>
@@ -8598,7 +8587,7 @@
         <v>231.26553323864937</v>
       </c>
     </row>
-    <row r="197" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="197" spans="1:14">
       <c r="A197" s="2">
         <v>196</v>
       </c>
@@ -8636,7 +8625,7 @@
         <v>-13.928305209614336</v>
       </c>
     </row>
-    <row r="198" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="198" spans="1:14">
       <c r="A198" s="2">
         <v>197</v>
       </c>
@@ -8674,7 +8663,7 @@
         <v>152.4678128072992</v>
       </c>
     </row>
-    <row r="199" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="199" spans="1:14">
       <c r="A199" s="2">
         <v>198</v>
       </c>
@@ -8712,9 +8701,9 @@
         <v>145.73576033860445</v>
       </c>
     </row>
-    <row r="200" spans="1:14" x14ac:dyDescent="0.7">
+    <row r="200" spans="1:14">
       <c r="A200" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>106</v>
@@ -8723,36 +8712,36 @@
         <v>106</v>
       </c>
       <c r="D200" s="4">
-        <v>-1178265.2169600001</v>
+        <v>-1616951.3151700001</v>
       </c>
       <c r="E200" s="4">
-        <v>6073650.5873600002</v>
+        <v>5939039.4969300004</v>
       </c>
       <c r="F200" s="4">
-        <v>1544929.8305500001</v>
+        <v>1666309.65806</v>
       </c>
       <c r="H200" s="5">
-        <v>14.111358193454606</v>
+        <v>15.245097775524243</v>
       </c>
       <c r="I200" s="5">
-        <v>100.97879265898618</v>
+        <v>105.23009250091808</v>
       </c>
       <c r="J200" s="4">
-        <v>-15.451663807965815</v>
+        <v>109.00194317474961</v>
       </c>
       <c r="L200" s="4">
-        <v>713625.73326865816</v>
+        <v>524708.3182173972</v>
       </c>
       <c r="M200" s="4">
-        <v>1560941.6777597596</v>
+        <v>1685448.2332995932</v>
       </c>
       <c r="N200" s="4">
-        <v>-15.451663807965815</v>
-      </c>
-    </row>
-    <row r="201" spans="1:14" x14ac:dyDescent="0.7">
+        <v>109.00194317474961</v>
+      </c>
+    </row>
+    <row r="201" spans="1:14">
       <c r="A201" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B201" s="3" t="s">
         <v>107</v>
@@ -8761,36 +8750,36 @@
         <v>107</v>
       </c>
       <c r="D201" s="4">
-        <v>-1616951.3151700001</v>
+        <v>-1215054.3671599999</v>
       </c>
       <c r="E201" s="4">
-        <v>5939039.4969300004</v>
+        <v>6014245.7060500002</v>
       </c>
       <c r="F201" s="4">
-        <v>1666309.65806</v>
+        <v>1736656.8187200001</v>
       </c>
       <c r="H201" s="5">
-        <v>15.245097775524243</v>
+        <v>15.904701259025256</v>
       </c>
       <c r="I201" s="5">
-        <v>105.23009250091808</v>
+        <v>101.42169184318868</v>
       </c>
       <c r="J201" s="4">
-        <v>109.00194317474961</v>
+        <v>249.22231203690171</v>
       </c>
       <c r="L201" s="4">
-        <v>524708.3182173972</v>
+        <v>759289.1253536588</v>
       </c>
       <c r="M201" s="4">
-        <v>1685448.2332995932</v>
+        <v>1759896.2788261138</v>
       </c>
       <c r="N201" s="4">
-        <v>109.00194317474961</v>
-      </c>
-    </row>
-    <row r="202" spans="1:14" x14ac:dyDescent="0.7">
+        <v>249.22231203690171</v>
+      </c>
+    </row>
+    <row r="202" spans="1:14">
       <c r="A202" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B202" s="3" t="s">
         <v>108</v>
@@ -8799,36 +8788,36 @@
         <v>108</v>
       </c>
       <c r="D202" s="4">
-        <v>-1215054.3671599999</v>
+        <v>-922365.13561999996</v>
       </c>
       <c r="E202" s="4">
-        <v>6014245.7060500002</v>
+        <v>6250473.3510600002</v>
       </c>
       <c r="F202" s="4">
-        <v>1736656.8187200001</v>
+        <v>869690.36222999997</v>
       </c>
       <c r="H202" s="5">
-        <v>15.904701259025256</v>
+        <v>7.8896272377582397</v>
       </c>
       <c r="I202" s="5">
-        <v>101.42169184318868</v>
+        <v>98.39439782175269</v>
       </c>
       <c r="J202" s="4">
-        <v>249.22231203690171</v>
+        <v>0.13998494017869234</v>
       </c>
       <c r="L202" s="4">
-        <v>759289.1253536588</v>
+        <v>433244.10164609656</v>
       </c>
       <c r="M202" s="4">
-        <v>1759896.2788261138</v>
+        <v>872144.43200149527</v>
       </c>
       <c r="N202" s="4">
-        <v>249.22231203690171</v>
-      </c>
-    </row>
-    <row r="203" spans="1:14" x14ac:dyDescent="0.7">
+        <v>0.13998494017869234</v>
+      </c>
+    </row>
+    <row r="203" spans="1:14">
       <c r="A203" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B203" s="3" t="s">
         <v>109</v>
@@ -8837,36 +8826,36 @@
         <v>109</v>
       </c>
       <c r="D203" s="4">
-        <v>-922365.13561999996</v>
+        <v>-1132704.5878999999</v>
       </c>
       <c r="E203" s="4">
-        <v>6250473.3510600002</v>
+        <v>6087759.8145500002</v>
       </c>
       <c r="F203" s="4">
-        <v>869690.36222999997</v>
+        <v>1523587.23914</v>
       </c>
       <c r="H203" s="5">
-        <v>7.8896272377582397</v>
+        <v>13.912475092238735</v>
       </c>
       <c r="I203" s="5">
-        <v>98.39439782175269</v>
+        <v>100.54007621688233</v>
       </c>
       <c r="J203" s="4">
-        <v>0.13998494017869234</v>
+        <v>13.34324448928237</v>
       </c>
       <c r="L203" s="4">
-        <v>433244.10164609656</v>
+        <v>666394.62194161676</v>
       </c>
       <c r="M203" s="4">
-        <v>872144.43200149527</v>
+        <v>1538584.3091037441</v>
       </c>
       <c r="N203" s="4">
-        <v>0.13998494017869234</v>
-      </c>
-    </row>
-    <row r="204" spans="1:14" x14ac:dyDescent="0.7">
+        <v>13.34324448928237</v>
+      </c>
+    </row>
+    <row r="204" spans="1:14">
       <c r="A204" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B204" s="3" t="s">
         <v>110</v>
@@ -8875,36 +8864,36 @@
         <v>110</v>
       </c>
       <c r="D204" s="4">
-        <v>-1132704.5878999999</v>
+        <v>-1118572.28516</v>
       </c>
       <c r="E204" s="4">
-        <v>6087759.8145500002</v>
+        <v>6211237.0908399997</v>
       </c>
       <c r="F204" s="4">
-        <v>1523587.23914</v>
+        <v>918761.08398</v>
       </c>
       <c r="H204" s="5">
-        <v>13.912475092238735</v>
+        <v>8.3378223468161146</v>
       </c>
       <c r="I204" s="5">
-        <v>100.54007621688233</v>
+        <v>100.20888442297027</v>
       </c>
       <c r="J204" s="4">
-        <v>13.34324448928237</v>
+        <v>-11.801104891113937</v>
       </c>
       <c r="L204" s="4">
-        <v>666394.62194161676</v>
+        <v>633115.6399358433</v>
       </c>
       <c r="M204" s="4">
-        <v>1538584.3091037441</v>
+        <v>921848.60330648045</v>
       </c>
       <c r="N204" s="4">
-        <v>13.34324448928237</v>
-      </c>
-    </row>
-    <row r="205" spans="1:14" x14ac:dyDescent="0.7">
+        <v>-11.801104891113937</v>
+      </c>
+    </row>
+    <row r="205" spans="1:14">
       <c r="A205" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B205" s="3" t="s">
         <v>111</v>
@@ -8913,36 +8902,36 @@
         <v>111</v>
       </c>
       <c r="D205" s="4">
-        <v>-1118572.28516</v>
+        <v>-1203243.4352599999</v>
       </c>
       <c r="E205" s="4">
-        <v>6211237.0908399997</v>
+        <v>6086106.9225199996</v>
       </c>
       <c r="F205" s="4">
-        <v>918761.08398</v>
+        <v>1475570.3541900001</v>
       </c>
       <c r="H205" s="5">
-        <v>8.3378223468161146</v>
+        <v>13.465835869820873</v>
       </c>
       <c r="I205" s="5">
-        <v>100.20888442297027</v>
+        <v>101.18334686770316</v>
       </c>
       <c r="J205" s="4">
-        <v>-11.801104891113937</v>
+        <v>-12.346553766168654</v>
       </c>
       <c r="L205" s="4">
-        <v>633115.6399358433</v>
+        <v>736367.08608562942</v>
       </c>
       <c r="M205" s="4">
-        <v>921848.60330648045</v>
+        <v>1489700.7881839036</v>
       </c>
       <c r="N205" s="4">
-        <v>-11.801104891113937</v>
-      </c>
-    </row>
-    <row r="206" spans="1:14" x14ac:dyDescent="0.7">
+        <v>-12.346553766168654</v>
+      </c>
+    </row>
+    <row r="206" spans="1:14">
       <c r="A206" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B206" s="3" t="s">
         <v>112</v>
@@ -8951,36 +8940,36 @@
         <v>112</v>
       </c>
       <c r="D206" s="4">
-        <v>-1203243.4352599999</v>
+        <v>-1080405.8425799999</v>
       </c>
       <c r="E206" s="4">
-        <v>6086106.9225199996</v>
+        <v>6003678.7528600004</v>
       </c>
       <c r="F206" s="4">
-        <v>1475570.3541900001</v>
+        <v>1856402.63937</v>
       </c>
       <c r="H206" s="5">
-        <v>13.465835869820873</v>
+        <v>17.033671442742438</v>
       </c>
       <c r="I206" s="5">
-        <v>101.18334686770316</v>
+        <v>100.20160417742734</v>
       </c>
       <c r="J206" s="4">
-        <v>-12.346553766168654</v>
+        <v>20.406168457120657</v>
       </c>
       <c r="L206" s="4">
-        <v>736367.08608562942</v>
+        <v>627887.59460257343</v>
       </c>
       <c r="M206" s="4">
-        <v>1489700.7881839036</v>
+        <v>1883672.8177769308</v>
       </c>
       <c r="N206" s="4">
-        <v>-12.346553766168654</v>
-      </c>
-    </row>
-    <row r="207" spans="1:14" x14ac:dyDescent="0.7">
+        <v>20.406168457120657</v>
+      </c>
+    </row>
+    <row r="207" spans="1:14">
       <c r="A207" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B207" s="3" t="s">
         <v>113</v>
@@ -8989,36 +8978,36 @@
         <v>113</v>
       </c>
       <c r="D207" s="4">
-        <v>-1080405.8425799999</v>
+        <v>-1105618.72908</v>
       </c>
       <c r="E207" s="4">
-        <v>6003678.7528600004</v>
+        <v>6224823.3073000005</v>
       </c>
       <c r="F207" s="4">
-        <v>1856402.63937</v>
+        <v>839659.53966000001</v>
       </c>
       <c r="H207" s="5">
-        <v>17.033671442742438</v>
+        <v>7.6155855706531943</v>
       </c>
       <c r="I207" s="5">
-        <v>100.20160417742734</v>
+        <v>100.07152787429796</v>
       </c>
       <c r="J207" s="4">
-        <v>20.406168457120657</v>
+        <v>-2.6598810534924269</v>
       </c>
       <c r="L207" s="4">
-        <v>627887.59460257343</v>
+        <v>618196.16345530446</v>
       </c>
       <c r="M207" s="4">
-        <v>1883672.8177769308</v>
+        <v>841947.11480582098</v>
       </c>
       <c r="N207" s="4">
-        <v>20.406168457120657</v>
-      </c>
-    </row>
-    <row r="208" spans="1:14" x14ac:dyDescent="0.7">
+        <v>-2.6598810534924269</v>
+      </c>
+    </row>
+    <row r="208" spans="1:14">
       <c r="A208" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>114</v>
@@ -9027,36 +9016,36 @@
         <v>114</v>
       </c>
       <c r="D208" s="4">
-        <v>-1105618.72908</v>
+        <v>-1148836.0896300001</v>
       </c>
       <c r="E208" s="4">
-        <v>6224823.3073000005</v>
+        <v>6229446.5729099996</v>
       </c>
       <c r="F208" s="4">
-        <v>839659.53966000001</v>
+        <v>742561.62384999997</v>
       </c>
       <c r="H208" s="5">
-        <v>7.6155855706531943</v>
+        <v>6.7306353888251707</v>
       </c>
       <c r="I208" s="5">
-        <v>100.07152787429796</v>
+        <v>100.44909678453035</v>
       </c>
       <c r="J208" s="4">
-        <v>-2.6598810534924269</v>
+        <v>24.40121282171458</v>
       </c>
       <c r="L208" s="4">
-        <v>618196.16345530446</v>
+        <v>660160.9704177829</v>
       </c>
       <c r="M208" s="4">
-        <v>841947.11480582098</v>
+        <v>744209.12348211708</v>
       </c>
       <c r="N208" s="4">
-        <v>-2.6598810534924269</v>
-      </c>
-    </row>
-    <row r="209" spans="1:14" x14ac:dyDescent="0.7">
+        <v>24.40121282171458</v>
+      </c>
+    </row>
+    <row r="209" spans="1:14">
       <c r="A209" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>115</v>
@@ -9065,36 +9054,36 @@
         <v>115</v>
       </c>
       <c r="D209" s="4">
-        <v>-1148836.0896300001</v>
+        <v>-1107406.4636599999</v>
       </c>
       <c r="E209" s="4">
-        <v>6229446.5729099996</v>
+        <v>6238298.9187000003</v>
       </c>
       <c r="F209" s="4">
-        <v>742561.62384999997</v>
+        <v>730921.72846999997</v>
       </c>
       <c r="H209" s="5">
-        <v>6.7306353888251707</v>
+        <v>6.624694236622001</v>
       </c>
       <c r="I209" s="5">
-        <v>100.44909678453035</v>
+        <v>100.06613459200094</v>
       </c>
       <c r="J209" s="4">
-        <v>24.40121282171458</v>
+        <v>-4.8593368716537952</v>
       </c>
       <c r="L209" s="4">
-        <v>660160.9704177829</v>
+        <v>617853.89835419715</v>
       </c>
       <c r="M209" s="4">
-        <v>744209.12348211708</v>
+        <v>732386.94686315511</v>
       </c>
       <c r="N209" s="4">
-        <v>24.40121282171458</v>
-      </c>
-    </row>
-    <row r="210" spans="1:14" x14ac:dyDescent="0.7">
+        <v>-4.8593368716537952</v>
+      </c>
+    </row>
+    <row r="210" spans="1:14">
       <c r="A210" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B210" s="3" t="s">
         <v>116</v>
@@ -9103,36 +9092,36 @@
         <v>116</v>
       </c>
       <c r="D210" s="4">
-        <v>-1107406.4636599999</v>
+        <v>-1289380.0788700001</v>
       </c>
       <c r="E210" s="4">
-        <v>6238298.9187000003</v>
+        <v>5970108.0774999997</v>
       </c>
       <c r="F210" s="4">
-        <v>730921.72846999997</v>
+        <v>1831833.2468399999</v>
       </c>
       <c r="H210" s="5">
-        <v>6.624694236622001</v>
+        <v>16.801187045377098</v>
       </c>
       <c r="I210" s="5">
-        <v>100.06613459200094</v>
+        <v>102.1871361587434</v>
       </c>
       <c r="J210" s="4">
-        <v>-4.8593368716537952</v>
+        <v>179.31327988393605</v>
       </c>
       <c r="L210" s="4">
-        <v>617853.89835419715</v>
+        <v>200174.77205459645</v>
       </c>
       <c r="M210" s="4">
-        <v>732386.94686315511</v>
+        <v>1859690.1503038069</v>
       </c>
       <c r="N210" s="4">
-        <v>-4.8593368716537952</v>
-      </c>
-    </row>
-    <row r="211" spans="1:14" x14ac:dyDescent="0.7">
+        <v>179.31327988393605</v>
+      </c>
+    </row>
+    <row r="211" spans="1:14">
       <c r="A211" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B211" s="3" t="s">
         <v>117</v>
@@ -9141,36 +9130,36 @@
         <v>117</v>
       </c>
       <c r="D211" s="4">
-        <v>-1289380.0788700001</v>
+        <v>-1154290.8156000001</v>
       </c>
       <c r="E211" s="4">
-        <v>5970108.0774999997</v>
+        <v>6017173.1131999996</v>
       </c>
       <c r="F211" s="4">
-        <v>1831833.2468399999</v>
+        <v>1766859.2679300001</v>
       </c>
       <c r="H211" s="5">
-        <v>16.801187045377098</v>
+        <v>16.189144699101309</v>
       </c>
       <c r="I211" s="5">
-        <v>102.1871361587434</v>
+        <v>100.85928257418777</v>
       </c>
       <c r="J211" s="4">
-        <v>179.31327988393605</v>
+        <v>75.154603265225887</v>
       </c>
       <c r="L211" s="4">
-        <v>200174.77205459645</v>
+        <v>698769.00905593683</v>
       </c>
       <c r="M211" s="4">
-        <v>1859690.1503038069</v>
+        <v>1790757.1041656956</v>
       </c>
       <c r="N211" s="4">
-        <v>179.31327988393605</v>
-      </c>
-    </row>
-    <row r="212" spans="1:14" x14ac:dyDescent="0.7">
+        <v>75.154603265225887</v>
+      </c>
+    </row>
+    <row r="212" spans="1:14">
       <c r="A212" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B212" s="3" t="s">
         <v>118</v>
@@ -9179,36 +9168,36 @@
         <v>118</v>
       </c>
       <c r="D212" s="4">
-        <v>-1154290.8156000001</v>
+        <v>-1031456.01031</v>
       </c>
       <c r="E212" s="4">
-        <v>6017173.1131999996</v>
+        <v>5996166.4207499996</v>
       </c>
       <c r="F212" s="4">
-        <v>1766859.2679300001</v>
+        <v>1907542.7935899999</v>
       </c>
       <c r="H212" s="5">
-        <v>16.189144699101309</v>
+        <v>17.517529618031631</v>
       </c>
       <c r="I212" s="5">
-        <v>100.85928257418777</v>
+        <v>99.760452142397682</v>
       </c>
       <c r="J212" s="4">
-        <v>75.154603265225887</v>
+        <v>41.089013307355344</v>
       </c>
       <c r="L212" s="4">
-        <v>698769.00905593683</v>
+        <v>580721.49264660792</v>
       </c>
       <c r="M212" s="4">
-        <v>1790757.1041656956</v>
+        <v>1936969.4560393188</v>
       </c>
       <c r="N212" s="4">
-        <v>75.154603265225887</v>
-      </c>
-    </row>
-    <row r="213" spans="1:14" x14ac:dyDescent="0.7">
+        <v>41.089013307355344</v>
+      </c>
+    </row>
+    <row r="213" spans="1:14">
       <c r="A213" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>119</v>
@@ -9217,36 +9206,36 @@
         <v>119</v>
       </c>
       <c r="D213" s="4">
-        <v>-1031456.01031</v>
+        <v>-1519763.89378</v>
       </c>
       <c r="E213" s="4">
-        <v>5996166.4207499996</v>
+        <v>5968501.7029400002</v>
       </c>
       <c r="F213" s="4">
-        <v>1907542.7935899999</v>
+        <v>1652534.87057</v>
       </c>
       <c r="H213" s="5">
-        <v>17.517529618031631</v>
+        <v>15.116119487451922</v>
       </c>
       <c r="I213" s="5">
-        <v>99.760452142397682</v>
+        <v>104.28568378694824</v>
       </c>
       <c r="J213" s="4">
-        <v>41.089013307355344</v>
+        <v>104.98066513054073</v>
       </c>
       <c r="L213" s="4">
-        <v>580721.49264660792</v>
+        <v>423245.54167217971</v>
       </c>
       <c r="M213" s="4">
-        <v>1936969.4560393188</v>
+        <v>1671294.1640372074</v>
       </c>
       <c r="N213" s="4">
-        <v>41.089013307355344</v>
-      </c>
-    </row>
-    <row r="214" spans="1:14" x14ac:dyDescent="0.7">
+        <v>104.98066513054073</v>
+      </c>
+    </row>
+    <row r="214" spans="1:14">
       <c r="A214" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>120</v>
@@ -9255,36 +9244,36 @@
         <v>120</v>
       </c>
       <c r="D214" s="4">
-        <v>-1519763.89378</v>
+        <v>-1469423.1355699999</v>
       </c>
       <c r="E214" s="4">
-        <v>5968501.7029400002</v>
+        <v>5986139.99199</v>
       </c>
       <c r="F214" s="4">
-        <v>1652534.87057</v>
+        <v>1634345.1321099999</v>
       </c>
       <c r="H214" s="5">
-        <v>15.116119487451922</v>
+        <v>14.945870953835897</v>
       </c>
       <c r="I214" s="5">
-        <v>104.28568378694824</v>
+        <v>103.79175037027015</v>
       </c>
       <c r="J214" s="4">
-        <v>104.98066513054073</v>
+        <v>119.95524180680513</v>
       </c>
       <c r="L214" s="4">
-        <v>423245.54167217971</v>
+        <v>370063.1162597792</v>
       </c>
       <c r="M214" s="4">
-        <v>1671294.1640372074</v>
+        <v>1652692.4778915744</v>
       </c>
       <c r="N214" s="4">
-        <v>104.98066513054073</v>
-      </c>
-    </row>
-    <row r="215" spans="1:14" x14ac:dyDescent="0.7">
+        <v>119.95524180680513</v>
+      </c>
+    </row>
+    <row r="215" spans="1:14">
       <c r="A215" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B215" s="3" t="s">
         <v>121</v>
@@ -9293,36 +9282,36 @@
         <v>121</v>
       </c>
       <c r="D215" s="4">
-        <v>-1469423.1355699999</v>
+        <v>-974577.80996999994</v>
       </c>
       <c r="E215" s="4">
-        <v>5986139.99199</v>
+        <v>5987074.6953100003</v>
       </c>
       <c r="F215" s="4">
-        <v>1634345.1321099999</v>
+        <v>1965312.31804</v>
       </c>
       <c r="H215" s="5">
-        <v>14.945870953835897</v>
+        <v>18.065198972789808</v>
       </c>
       <c r="I215" s="5">
-        <v>103.79175037027015</v>
+        <v>99.245532334702858</v>
       </c>
       <c r="J215" s="4">
-        <v>119.95524180680513</v>
+        <v>212.93816506396979</v>
       </c>
       <c r="L215" s="4">
-        <v>370063.1162597792</v>
+        <v>525983.19208326878</v>
       </c>
       <c r="M215" s="4">
-        <v>1652692.4778915744</v>
+        <v>1997416.1918900984</v>
       </c>
       <c r="N215" s="4">
-        <v>119.95524180680513</v>
-      </c>
-    </row>
-    <row r="216" spans="1:14" x14ac:dyDescent="0.7">
+        <v>212.93816506396979</v>
+      </c>
+    </row>
+    <row r="216" spans="1:14">
       <c r="A216" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B216" s="3" t="s">
         <v>122</v>
@@ -9331,36 +9320,36 @@
         <v>122</v>
       </c>
       <c r="D216" s="4">
-        <v>-974577.80996999994</v>
+        <v>-1229477.6192699999</v>
       </c>
       <c r="E216" s="4">
-        <v>5987074.6953100003</v>
+        <v>6075764.8713699998</v>
       </c>
       <c r="F216" s="4">
-        <v>1965312.31804</v>
+        <v>1496301.0131900001</v>
       </c>
       <c r="H216" s="5">
-        <v>18.065198972789808</v>
+        <v>13.658577989255919</v>
       </c>
       <c r="I216" s="5">
-        <v>99.245532334702858</v>
+        <v>101.43976233599689</v>
       </c>
       <c r="J216" s="4">
-        <v>212.93816506396979</v>
+        <v>-7.1879308242350817</v>
       </c>
       <c r="L216" s="4">
-        <v>525983.19208326878</v>
+        <v>763927.50824371446</v>
       </c>
       <c r="M216" s="4">
-        <v>1997416.1918900984</v>
+        <v>1511294.7509383329</v>
       </c>
       <c r="N216" s="4">
-        <v>212.93816506396979</v>
-      </c>
-    </row>
-    <row r="217" spans="1:14" x14ac:dyDescent="0.7">
+        <v>-7.1879308242350817</v>
+      </c>
+    </row>
+    <row r="217" spans="1:14">
       <c r="A217" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B217" s="3" t="s">
         <v>123</v>
@@ -9369,36 +9358,36 @@
         <v>123</v>
       </c>
       <c r="D217" s="4">
-        <v>-1229477.6192699999</v>
+        <v>-1163641.95487</v>
       </c>
       <c r="E217" s="4">
-        <v>6075764.8713699998</v>
+        <v>6220193.9391700001</v>
       </c>
       <c r="F217" s="4">
-        <v>1496301.0131900001</v>
+        <v>794819.09722</v>
       </c>
       <c r="H217" s="5">
-        <v>13.658577989255919</v>
+        <v>7.2066889157658425</v>
       </c>
       <c r="I217" s="5">
-        <v>101.43976233599689</v>
+        <v>100.5961224113871</v>
       </c>
       <c r="J217" s="4">
-        <v>-7.1879308242350817</v>
+        <v>18.706541402265429</v>
       </c>
       <c r="L217" s="4">
-        <v>763927.50824371446</v>
+        <v>676236.87644003506</v>
       </c>
       <c r="M217" s="4">
-        <v>1511294.7509383329</v>
+        <v>796905.71810694074</v>
       </c>
       <c r="N217" s="4">
-        <v>-7.1879308242350817</v>
-      </c>
-    </row>
-    <row r="218" spans="1:14" x14ac:dyDescent="0.7">
+        <v>18.706541402265429</v>
+      </c>
+    </row>
+    <row r="218" spans="1:14">
       <c r="A218" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B218" s="3" t="s">
         <v>124</v>
@@ -9407,36 +9396,36 @@
         <v>124</v>
       </c>
       <c r="D218" s="4">
-        <v>-1163641.95487</v>
+        <v>-1086264.46187</v>
       </c>
       <c r="E218" s="4">
-        <v>6220193.9391700001</v>
+        <v>6079455.0886000004</v>
       </c>
       <c r="F218" s="4">
-        <v>794819.09722</v>
+        <v>1588618.4139099999</v>
       </c>
       <c r="H218" s="5">
-        <v>7.2066889157658425</v>
+        <v>14.518871912701089</v>
       </c>
       <c r="I218" s="5">
-        <v>100.5961224113871</v>
+        <v>100.1305851615589</v>
       </c>
       <c r="J218" s="4">
-        <v>18.706541402265429</v>
+        <v>-13.319702343083918</v>
       </c>
       <c r="L218" s="4">
-        <v>676236.87644003506</v>
+        <v>621820.81547992723</v>
       </c>
       <c r="M218" s="4">
-        <v>796905.71810694074</v>
+        <v>1605413.5499985211</v>
       </c>
       <c r="N218" s="4">
-        <v>18.706541402265429</v>
-      </c>
-    </row>
-    <row r="219" spans="1:14" x14ac:dyDescent="0.7">
+        <v>-13.319702343083918</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14">
       <c r="A219" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B219" s="3" t="s">
         <v>125</v>
@@ -9445,36 +9434,36 @@
         <v>125</v>
       </c>
       <c r="D219" s="4">
-        <v>-1086264.46187</v>
+        <v>-1305397.87845</v>
       </c>
       <c r="E219" s="4">
-        <v>6079455.0886000004</v>
+        <v>6206671.0462800004</v>
       </c>
       <c r="F219" s="4">
-        <v>1588618.4139099999</v>
+        <v>671589.75555</v>
       </c>
       <c r="H219" s="5">
-        <v>14.518871912701089</v>
+        <v>6.084835585593491</v>
       </c>
       <c r="I219" s="5">
-        <v>100.1305851615589</v>
+        <v>101.87743392009514</v>
       </c>
       <c r="J219" s="4">
-        <v>-13.319702343083918</v>
+        <v>21.168427639640868</v>
       </c>
       <c r="L219" s="4">
-        <v>621820.81547992723</v>
+        <v>818526.20176748186</v>
       </c>
       <c r="M219" s="4">
-        <v>1605413.5499985211</v>
+        <v>673430.85870572203</v>
       </c>
       <c r="N219" s="4">
-        <v>-13.319702343083918</v>
-      </c>
-    </row>
-    <row r="220" spans="1:14" x14ac:dyDescent="0.7">
+        <v>21.168427639640868</v>
+      </c>
+    </row>
+    <row r="220" spans="1:14">
       <c r="A220" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B220" s="3" t="s">
         <v>126</v>
@@ -9483,36 +9472,36 @@
         <v>126</v>
       </c>
       <c r="D220" s="4">
-        <v>-1305397.87845</v>
+        <v>-1021155.57319</v>
       </c>
       <c r="E220" s="4">
-        <v>6206671.0462800004</v>
+        <v>6214494.4588900004</v>
       </c>
       <c r="F220" s="4">
-        <v>671589.75555</v>
+        <v>1005605.0125299999</v>
       </c>
       <c r="H220" s="5">
-        <v>6.084835585593491</v>
+        <v>9.1322211050204469</v>
       </c>
       <c r="I220" s="5">
-        <v>101.87743392009514</v>
+        <v>99.331361256663712</v>
       </c>
       <c r="J220" s="4">
-        <v>21.168427639640868</v>
+        <v>9.8134011784568429</v>
       </c>
       <c r="L220" s="4">
-        <v>818526.20176748186</v>
+        <v>536408.1094432536</v>
       </c>
       <c r="M220" s="4">
-        <v>673430.85870572203</v>
+        <v>1009486.9362471763</v>
       </c>
       <c r="N220" s="4">
-        <v>21.168427639640868</v>
-      </c>
-    </row>
-    <row r="221" spans="1:14" x14ac:dyDescent="0.7">
+        <v>9.8134011784568429</v>
+      </c>
+    </row>
+    <row r="221" spans="1:14">
       <c r="A221" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B221" s="3" t="s">
         <v>127</v>
@@ -9521,36 +9510,36 @@
         <v>127</v>
       </c>
       <c r="D221" s="4">
-        <v>-1021155.57319</v>
+        <v>-1060808.5550800001</v>
       </c>
       <c r="E221" s="4">
-        <v>6214494.4588900004</v>
+        <v>6224765.0056100003</v>
       </c>
       <c r="F221" s="4">
-        <v>1005605.0125299999</v>
+        <v>895963.66004999995</v>
       </c>
       <c r="H221" s="5">
-        <v>9.1322211050204469</v>
+        <v>8.1294742043382726</v>
       </c>
       <c r="I221" s="5">
-        <v>99.331361256663712</v>
+        <v>99.671289801607429</v>
       </c>
       <c r="J221" s="4">
-        <v>9.8134011784568429</v>
+        <v>42.610694858245552</v>
       </c>
       <c r="L221" s="4">
-        <v>536408.1094432536</v>
+        <v>573953.69872911763</v>
       </c>
       <c r="M221" s="4">
-        <v>1009486.9362471763</v>
+        <v>898672.73503724101</v>
       </c>
       <c r="N221" s="4">
-        <v>9.8134011784568429</v>
-      </c>
-    </row>
-    <row r="222" spans="1:14" x14ac:dyDescent="0.7">
+        <v>42.610694858245552</v>
+      </c>
+    </row>
+    <row r="222" spans="1:14">
       <c r="A222" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B222" s="3" t="s">
         <v>128</v>
@@ -9559,36 +9548,36 @@
         <v>128</v>
       </c>
       <c r="D222" s="4">
-        <v>-1060808.5550800001</v>
+        <v>-1108846.3214700001</v>
       </c>
       <c r="E222" s="4">
-        <v>6224765.0056100003</v>
+        <v>6024716.91634</v>
       </c>
       <c r="F222" s="4">
-        <v>895963.66004999995</v>
+        <v>1769997.6421099999</v>
       </c>
       <c r="H222" s="5">
-        <v>8.1294742043382726</v>
+        <v>16.218849013055859</v>
       </c>
       <c r="I222" s="5">
-        <v>99.671289801607429</v>
+        <v>100.42855347200489</v>
       </c>
       <c r="J222" s="4">
-        <v>42.610694858245552</v>
+        <v>10.052188369445503</v>
       </c>
       <c r="L222" s="4">
-        <v>573953.69872911763</v>
+        <v>652689.14698927011</v>
       </c>
       <c r="M222" s="4">
-        <v>898672.73503724101</v>
+        <v>1793675.2201951323</v>
       </c>
       <c r="N222" s="4">
-        <v>42.610694858245552</v>
-      </c>
-    </row>
-    <row r="223" spans="1:14" x14ac:dyDescent="0.7">
+        <v>10.052188369445503</v>
+      </c>
+    </row>
+    <row r="223" spans="1:14">
       <c r="A223" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B223" s="3" t="s">
         <v>129</v>
@@ -9597,36 +9586,36 @@
         <v>129</v>
       </c>
       <c r="D223" s="4">
-        <v>-1108846.3214700001</v>
+        <v>-1346748.81439</v>
       </c>
       <c r="E223" s="4">
-        <v>6024716.91634</v>
+        <v>5936987.3496899996</v>
       </c>
       <c r="F223" s="4">
-        <v>1769997.6421099999</v>
+        <v>1896511.3584799999</v>
       </c>
       <c r="H223" s="5">
-        <v>16.218849013055859</v>
+        <v>17.412729499571537</v>
       </c>
       <c r="I223" s="5">
-        <v>100.42855347200489</v>
+        <v>102.78071206838375</v>
       </c>
       <c r="J223" s="4">
-        <v>10.052188369445503</v>
+        <v>150.09286078251898</v>
       </c>
       <c r="L223" s="4">
-        <v>652689.14698927011</v>
+        <v>264246.24885648338</v>
       </c>
       <c r="M223" s="4">
-        <v>1793675.2201951323</v>
+        <v>1926580.9884964216</v>
       </c>
       <c r="N223" s="4">
-        <v>10.052188369445503</v>
-      </c>
-    </row>
-    <row r="224" spans="1:14" x14ac:dyDescent="0.7">
+        <v>150.09286078251898</v>
+      </c>
+    </row>
+    <row r="224" spans="1:14">
       <c r="A224" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B224" s="3" t="s">
         <v>130</v>
@@ -9635,36 +9624,36 @@
         <v>130</v>
       </c>
       <c r="D224" s="4">
-        <v>-1346748.81439</v>
+        <v>-1069154.1355699999</v>
       </c>
       <c r="E224" s="4">
-        <v>5936987.3496899996</v>
+        <v>6058114.3655300001</v>
       </c>
       <c r="F224" s="4">
-        <v>1896511.3584799999</v>
+        <v>1678632.59024</v>
       </c>
       <c r="H224" s="5">
-        <v>17.412729499571537</v>
+        <v>15.360825754485914</v>
       </c>
       <c r="I224" s="5">
-        <v>102.78071206838375</v>
+        <v>100.00866889559349</v>
       </c>
       <c r="J224" s="4">
-        <v>150.09286078251898</v>
+        <v>0.5186271769925952</v>
       </c>
       <c r="L224" s="4">
-        <v>264246.24885648338</v>
+        <v>608260.29959019786</v>
       </c>
       <c r="M224" s="4">
-        <v>1926580.9884964216</v>
+        <v>1698488.0082536174</v>
       </c>
       <c r="N224" s="4">
-        <v>150.09286078251898</v>
-      </c>
-    </row>
-    <row r="225" spans="1:14" x14ac:dyDescent="0.7">
+        <v>0.5186271769925952</v>
+      </c>
+    </row>
+    <row r="225" spans="1:14">
       <c r="A225" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B225" s="3" t="s">
         <v>131</v>
@@ -9673,36 +9662,36 @@
         <v>131</v>
       </c>
       <c r="D225" s="4">
-        <v>-1069154.1355699999</v>
+        <v>-1061726.5330000001</v>
       </c>
       <c r="E225" s="4">
-        <v>6058114.3655300001</v>
+        <v>6087755.9159000004</v>
       </c>
       <c r="F225" s="4">
-        <v>1678632.59024</v>
+        <v>1573446.43616</v>
       </c>
       <c r="H225" s="5">
-        <v>15.360825754485914</v>
+        <v>14.377269634933153</v>
       </c>
       <c r="I225" s="5">
-        <v>100.00866889559349</v>
+        <v>99.893086212187981</v>
       </c>
       <c r="J225" s="4">
-        <v>0.5186271769925952</v>
+        <v>-13.90259522665292</v>
       </c>
       <c r="L225" s="4">
-        <v>608260.29959019786</v>
+        <v>596289.09977621876</v>
       </c>
       <c r="M225" s="4">
-        <v>1698488.0082536174</v>
+        <v>1589637.4590197452</v>
       </c>
       <c r="N225" s="4">
-        <v>0.5186271769925952</v>
-      </c>
-    </row>
-    <row r="226" spans="1:14" x14ac:dyDescent="0.7">
+        <v>-13.90259522665292</v>
+      </c>
+    </row>
+    <row r="226" spans="1:14">
       <c r="A226" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B226" s="3" t="s">
         <v>132</v>
@@ -9711,36 +9700,36 @@
         <v>132</v>
       </c>
       <c r="D226" s="4">
-        <v>-1061726.5330000001</v>
+        <v>-1065933.0099599999</v>
       </c>
       <c r="E226" s="4">
-        <v>6087755.9159000004</v>
+        <v>5986322.6278499998</v>
       </c>
       <c r="F226" s="4">
-        <v>1573446.43616</v>
+        <v>1919422.2986000001</v>
       </c>
       <c r="H226" s="5">
-        <v>14.377269634933153</v>
+        <v>17.630091295400096</v>
       </c>
       <c r="I226" s="5">
-        <v>99.893086212187981</v>
+        <v>100.09634992081452</v>
       </c>
       <c r="J226" s="4">
-        <v>-13.90259522665292</v>
+        <v>51.071779356338084</v>
       </c>
       <c r="L226" s="4">
-        <v>596289.09977621876</v>
+        <v>616307.89213372907</v>
       </c>
       <c r="M226" s="4">
-        <v>1589637.4590197452</v>
+        <v>1949598.1099823592</v>
       </c>
       <c r="N226" s="4">
-        <v>-13.90259522665292</v>
-      </c>
-    </row>
-    <row r="227" spans="1:14" x14ac:dyDescent="0.7">
+        <v>51.071779356338084</v>
+      </c>
+    </row>
+    <row r="227" spans="1:14">
       <c r="A227" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B227" s="3" t="s">
         <v>133</v>
@@ -9749,36 +9738,36 @@
         <v>133</v>
       </c>
       <c r="D227" s="4">
-        <v>-1065933.0099599999</v>
+        <v>-1445454.8060600001</v>
       </c>
       <c r="E227" s="4">
-        <v>5986322.6278499998</v>
+        <v>5906211.3389799995</v>
       </c>
       <c r="F227" s="4">
-        <v>1919422.2986000001</v>
+        <v>1919621.4039799999</v>
       </c>
       <c r="H227" s="5">
-        <v>17.630091295400096</v>
+        <v>17.631715699749751</v>
       </c>
       <c r="I227" s="5">
-        <v>100.09634992081452</v>
+        <v>103.75195948859954</v>
       </c>
       <c r="J227" s="4">
-        <v>51.071779356338084</v>
+        <v>142.73955818917602</v>
       </c>
       <c r="L227" s="4">
-        <v>616307.89213372907</v>
+        <v>367599.00940889737</v>
       </c>
       <c r="M227" s="4">
-        <v>1949598.1099823592</v>
+        <v>1949877.5957299809</v>
       </c>
       <c r="N227" s="4">
-        <v>51.071779356338084</v>
-      </c>
-    </row>
-    <row r="228" spans="1:14" x14ac:dyDescent="0.7">
+        <v>142.73955818917602</v>
+      </c>
+    </row>
+    <row r="228" spans="1:14">
       <c r="A228" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" s="3" t="s">
         <v>134</v>
@@ -9787,73 +9776,35 @@
         <v>134</v>
       </c>
       <c r="D228" s="4">
-        <v>-1445454.8060600001</v>
+        <v>-1242445.0366199999</v>
       </c>
       <c r="E228" s="4">
-        <v>5906211.3389799995</v>
+        <v>5963540.4967700001</v>
       </c>
       <c r="F228" s="4">
-        <v>1919621.4039799999</v>
+        <v>1884709.2</v>
       </c>
       <c r="H228" s="5">
-        <v>17.631715699749751</v>
+        <v>17.30078292281571</v>
       </c>
       <c r="I228" s="5">
-        <v>103.75195948859954</v>
+        <v>101.76866431007113</v>
       </c>
       <c r="J228" s="4">
-        <v>142.73955818917602</v>
+        <v>228.96546791680157</v>
       </c>
       <c r="L228" s="4">
-        <v>367599.00940889737</v>
+        <v>794326.38118803711</v>
       </c>
       <c r="M228" s="4">
-        <v>1949877.5957299809</v>
+        <v>1914945.6196439893</v>
       </c>
       <c r="N228" s="4">
-        <v>142.73955818917602</v>
-      </c>
-    </row>
-    <row r="229" spans="1:14" x14ac:dyDescent="0.7">
-      <c r="A229" s="2">
-        <v>228</v>
-      </c>
-      <c r="B229" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C229" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D229" s="4">
-        <v>-1242445.0366199999</v>
-      </c>
-      <c r="E229" s="4">
-        <v>5963540.4967700001</v>
-      </c>
-      <c r="F229" s="4">
-        <v>1884709.2</v>
-      </c>
-      <c r="H229" s="5">
-        <v>17.30078292281571</v>
-      </c>
-      <c r="I229" s="5">
-        <v>101.76866431007113</v>
-      </c>
-      <c r="J229" s="4">
         <v>228.96546791680157</v>
       </c>
-      <c r="L229" s="4">
-        <v>794326.38118803711</v>
-      </c>
-      <c r="M229" s="4">
-        <v>1914945.6196439893</v>
-      </c>
-      <c r="N229" s="4">
-        <v>228.96546791680157</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M1"/>
+  <autoFilter ref="A1:M1" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
